--- a/data/Behavioral/description/Vineland.xlsx
+++ b/data/Behavioral/description/Vineland.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/all_data_dicts_09142017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10940" yWindow="1740" windowWidth="25360" windowHeight="15280" tabRatio="500"/>
+    <workbookView xWindow="12100" yWindow="1340" windowWidth="25360" windowHeight="15280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -260,7 +260,6 @@
       <sz val="16"/>
       <color rgb="FF0067A0"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -873,7 +872,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A29"/>
+      <selection activeCell="A30" sqref="A30:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
